--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_22.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_22.xlsx
@@ -483,35 +483,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>isophonics_47</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1436991869918699</v>
+        <v>0.2559523809523809</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(126.99, 135.953)]</t>
+          <t>[(61.6, 63.84)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(3.802834, 8.597755)]</t>
+          <t>[(1.302038, 5.439841)]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -520,154 +520,150 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>jaah_9</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>jaah_49</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.425</v>
+        <v>0.1125385405960945</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>[['C:7', 'F', 'F'], ['G:min7', 'C:7', 'F:7']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A']]</t>
+          <t>[['F:7', 'Bb', 'Bb'], ['C:min7', 'F:7', 'Bb:7']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(120.0, 122.7), (117.54, 121.8)]</t>
+          <t>[(51.69, 55.72), (3.05, 6.96)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(27.963197, 34.290634), (28.450816, 36.229501)]</t>
+          <t>[(44.74, 47.14), (2.6, 3.8)]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>isophonics_115</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>isophonics_49</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2373626373626374</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['Bb', 'Bb:min', 'F']]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['C', 'C:min', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(67.76, 77.5), (16.04, 22.4)]</t>
+          <t>[(39.61044, 45.427039)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(58.32, 59.68), (56.72, 58.88)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[(24.911369, 30.797628)]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3645833333333334</v>
+        <v>0.2913752913752914</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:maj', 'C:maj', 'G/3', 'D:maj', 'C:maj']]</t>
+          <t>[['A:min', 'E:maj/G#', 'A:min', 'A:7/G', 'D:min/F']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'G/2', 'D/5', 'A', 'G/2']]</t>
+          <t>[['A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(73.89, 86.025)]</t>
+          <t>[(13.34, 17.36)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(59.723, 65.759)]</t>
+          <t>[(13.5, 25.26)]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>isophonics_226</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>isophonics_19</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2392857142857143</v>
+        <v>0.225</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['F#:min', 'B', 'E']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>[['G:min', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(63.1, 64.5)]</t>
+          <t>[(45.645192, 58.300068)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(253.84, 257.6)]</t>
+          <t>[(45.474603, 48.945986)]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -676,72 +672,76 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1108870967741935</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D']]</t>
+          <t>[['C:7', 'F:min', 'C:maj'], ['F:maj', 'A#:maj', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(69.52047, 74.942329)]</t>
+          <t>[(12.96, 17.7), (123.22, 126.88), (0.78, 5.26)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.38, 7.84)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[(31.98, 34.58), (66.52, 70.14), (8.24, 13.46)]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1916666666666667</v>
+        <v>0.2729885057471264</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B'], ['B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>[['Bb', 'F:7', 'Bb', 'Bb'], ['F:7', 'Bb', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(8.08, 19.06)]</t>
+          <t>[(215.06, 226.54), (15.26, 37.4)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(283.3, 287.58)]</t>
+          <t>[(50.13, 55.78), (48.25, 53.91)]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -750,35 +750,35 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1789473684210526</v>
+        <v>0.2196969696969697</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A:min', 'D', 'G'], ['D', 'G', 'E:min'], ['C', 'D', 'G']]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min', 'C', 'F'], ['C', 'F', 'D:min'], ['Bb', 'C', 'F']]</t>
+          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(22.829118, 26.567531), (56.381952, 61.374243), (55.151295, 60.155195)]</t>
+          <t>[(8.54, 14.08)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(45.474603, 48.945986), (4.619092, 8.148526), (15.172562, 18.678775)]</t>
+          <t>[(13.56, 16.28)]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -787,330 +787,334 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.2657342657342657</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[(67.76, 84.78)]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(62.5, 72.76)]</t>
+          <t>[(20.56, 26.4)]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.07898351648351648</v>
+        <v>0.323076923076923</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F#:7', 'B:maj', 'F#:7']]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(8.2, 10.2)]</t>
+          <t>[(18.32, 25.82)]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(24.12, 27.0)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[(142.14, 146.8)]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_53</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>isophonics_140</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1929744525547445</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'G']]</t>
+          <t>[['A:maj', 'E:maj', 'B:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A']]</t>
+          <t>[['C', 'G', 'D'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(41.7, 45.42)]</t>
+          <t>[(63.08, 71.12), (59.22, 66.88)]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(227.62, 235.06)]</t>
+          <t>[(59.224321, 65.737518), (0.465952, 5.272756)]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3625</v>
+        <v>0.1202898550724638</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G'], ['C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C']]</t>
+          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A'], ['D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min'], ['F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(28.210155, 42.831033), (26.391305, 41.205636)]</t>
+          <t>[(20.92, 26.04), (225.32, 230.46)]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.421247, 13.590045), (1.922018, 15.064512)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>[(3.82, 8.62), (21.02, 24.16)]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>isophonics_82</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.09441489361702127</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['F#:min', 'C#:min', 'F#:min'], ['A', 'D', 'A'], ['E', 'A', 'D']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['C:min', 'G:min', 'C:min'], ['Bb/3', 'Eb:maj', 'Bb/3'], ['Bb:maj', 'Eb:maj', 'Ab:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(7.525011, 12.93526)]</t>
+          <t>[(17.839297, 23.087006), (3.988594, 7.754783), (54.526825, 61.516031)]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(83.34, 87.64)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[(312.842, 317.997), (38.041, 42.375), (237.731, 240.233)]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1348837209302326</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(6.94, 15.94)]</t>
+          <t>[(0.82, 107.92)]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[(1.66, 97.0)]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1360323886639676</v>
+        <v>0.1396103896103896</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'A:min/C', 'D:7', 'G:maj']]</t>
+          <t>[['F:maj', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C', 'D:min', 'G:7', 'C']]</t>
+          <t>[['F:maj', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(20.28, 26.66)]</t>
+          <t>[(14.48, 22.82)]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(102.694, 112.53)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[(13.155, 20.379)]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.07542426147077311</v>
+        <v>0.2223837209302326</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[(63.12, 69.42)]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
+          <t>[(94.78, 114.14)]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_22.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,638 +488,664 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2559523809523809</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1714285714285714</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(61.6, 63.84)]</t>
+          <t>[['E:7', 'A:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(1.302038, 5.439841)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:23.080000', '0:00:30.920000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:45.760000', '0:00:53.560000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_49</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1125385405960945</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F'], ['G:min7', 'C:7', 'F:7']]</t>
-        </is>
+          <t>schubert-winterreise_54</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1517241379310345</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb'], ['C:min7', 'F:7', 'Bb:7']]</t>
+          <t>[['G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(51.69, 55.72), (3.05, 6.96)]</t>
+          <t>[['A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(44.74, 47.14), (2.6, 3.8)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:18.420000', '0:00:24.340000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:17.780000', '0:00:25.400000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_115</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1047619047619048</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb:min', 'F']]</t>
-        </is>
+          <t>isophonics_279</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_265</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1538461538461539</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C', 'C:min', 'G']]</t>
+          <t>[['C:maj', 'F/5', 'C:maj'], ['F:maj', 'G', 'C:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(39.61044, 45.427039)]</t>
+          <t>[['A', 'D', 'A'], ['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(24.911369, 30.797628)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:10.619000', '0:00:16.742000'), ('0:00:32.808000', '0:00:36.091000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:45.425056', '0:01:55.003287'), ('0:00:05.130361', '0:00:10.478662')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2913752913752914</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min', 'A:7/G', 'D:min/F']]</t>
-        </is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_290</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1155080213903743</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A']]</t>
+          <t>[['F#:min', 'A', 'D'], ['A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(13.34, 17.36)]</t>
+          <t>[['A:min', 'C', 'F'], ['C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(13.5, 25.26)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:20.096214', '0:00:32.367960'), ('0:01:31.834264', '0:01:38.974002')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:24.170385', '0:00:29.889421'), ('0:00:08.482392', '0:00:11.666439')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_226</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min', 'C', 'F']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(45.645192, 58.300068)]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(45.474603, 48.945986)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:14.460000', '0:00:19.040000'), ('0:00:24.660000', '0:00:27.760000'), ('0:00:19.700000', '0:00:21.360000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:12.720000', '0:00:17.020000'), ('0:00:22.360000', '0:00:25.240000'), ('0:00:17.760000', '0:00:19.180000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1833333333333333</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:maj', 'A#:maj', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>isophonics_89</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_280</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08823529411764706</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['F#', 'B', 'F#']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(12.96, 17.7), (123.22, 126.88), (0.78, 5.26)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(31.98, 34.58), (66.52, 70.14), (8.24, 13.46)]</t>
+          <t>[('0:00:15.880484', '0:00:21.522933')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:03.389127', '0:00:22.035759')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_25</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2729885057471264</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B'], ['B:7', 'E:maj', 'B:7', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_159</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb', 'Bb'], ['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(215.06, 226.54), (15.26, 37.4)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(50.13, 55.78), (48.25, 53.91)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:55.560000', '0:01:00.520000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:47.340000', '0:00:52.740000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2196969696969697</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(8.54, 14.08)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(13.56, 16.28)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(67.76, 84.78)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[('0:01:03.880000', '0:01:14.940000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:03.220000', '0:00:18.300000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>schubert-winterreise_128</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_134</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.323076923076923</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(18.32, 25.82)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(142.14, 146.8)]</t>
+          <t>[('0:00:05.460000', '0:02:06.860000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:00:05', '0:01:54.060000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:maj', 'B:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D'], ['G', 'C', 'G']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(63.08, 71.12), (59.22, 66.88)]</t>
+          <t>[['A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(59.224321, 65.737518), (0.465952, 5.272756)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>[('0:00:52.740000', '0:01:04.440000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:14.879000', '0:01:27.795000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1202898550724638</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5892857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min'], ['F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(20.92, 26.04), (225.32, 230.46)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(3.82, 8.62), (21.02, 24.16)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.09441489361702127</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:min', 'F#:min'], ['A', 'D', 'A'], ['E', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min', 'C:min'], ['Bb/3', 'Eb:maj', 'Bb/3'], ['Bb:maj', 'Eb:maj', 'Ab:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(17.839297, 23.087006), (3.988594, 7.754783), (54.526825, 61.516031)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(312.842, 317.997), (38.041, 42.375), (237.731, 240.233)]</t>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:01:40.240000', '0:01:44.560000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.82, 107.92)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(1.66, 97.0)]</t>
+          <t>[('0:00:19.140000', '0:00:24.780000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:53.820000', '0:01:02.520000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1396103896103896</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'Bb']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(14.48, 22.82)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(13.155, 20.379)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:16.060000', '0:01:39.240000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:14.760000', '0:01:42.460000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_53</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2223837209302326</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(63.12, 69.42)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(94.78, 114.14)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
